--- a/VISCOSITA/tanti_dati_raccolti_da_eliminare.xlsx
+++ b/VISCOSITA/tanti_dati_raccolti_da_eliminare.xlsx
@@ -3,10 +3,10 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="cacca" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="roba a caso" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="misure caldo" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="chiquadro a manina" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="misure caldo 100" sheetId="4" state="visible" r:id="rId4"/>
@@ -280,7 +280,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>cacca!$B$12</c:f>
+              <c:f xml:space="preserve">'roba a caso'!$B$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -363,7 +363,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>cacca!$A$13:$A$41</c:f>
+              <c:f xml:space="preserve">'roba a caso'!$A$13:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="29"/>
@@ -459,7 +459,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>cacca!$B$13:$B$41</c:f>
+              <c:f xml:space="preserve">'roba a caso'!$B$13:$B$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
@@ -3545,7 +3545,7 @@
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3731,7 +3731,7 @@
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -3753,15 +3753,15 @@
         <v>16</v>
       </c>
       <c r="C1">
-        <f>A1-B1</f>
+        <f t="shared" ref="C1:C4" si="3">A1-B1</f>
         <v>6</v>
       </c>
       <c r="D1">
-        <f>C1*C1</f>
+        <f t="shared" ref="D1:D4" si="4">C1*C1</f>
         <v>36</v>
       </c>
       <c r="E1">
-        <f>D1/B1</f>
+        <f t="shared" ref="E1:E4" si="5">D1/B1</f>
         <v>2.25</v>
       </c>
     </row>
@@ -3773,15 +3773,15 @@
         <v>34</v>
       </c>
       <c r="C2">
-        <f>A2-B2</f>
+        <f t="shared" si="3"/>
         <v>-4</v>
       </c>
       <c r="D2">
-        <f>C2*C2</f>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="E2">
-        <f>D2/B2</f>
+        <f t="shared" si="5"/>
         <v>0.47058823529411764</v>
       </c>
     </row>
@@ -3793,15 +3793,15 @@
         <v>34</v>
       </c>
       <c r="C3">
-        <f>A3-B3</f>
+        <f t="shared" si="3"/>
         <v>-4</v>
       </c>
       <c r="D3">
-        <f>C3*C3</f>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="E3">
-        <f>D3/B3</f>
+        <f t="shared" si="5"/>
         <v>0.47058823529411764</v>
       </c>
     </row>
@@ -3813,15 +3813,15 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <f>A4-B4</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="D4">
-        <f>C4*C4</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="E4">
-        <f>D4/B4</f>
+        <f t="shared" si="5"/>
         <v>0.25</v>
       </c>
     </row>
@@ -3834,7 +3834,7 @@
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -4364,7 +4364,7 @@
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -4376,7 +4376,7 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1">
       <c r="A1">
@@ -4568,7 +4568,7 @@
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>